--- a/Distance_info.xlsx
+++ b/Distance_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>inch (in)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>S1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,323 +479,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.296875" customWidth="1"/>
-    <col min="7" max="7" width="7.3984375" customWidth="1"/>
-    <col min="8" max="8" width="6.09765625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="7" max="7" width="17.296875" customWidth="1"/>
+    <col min="8" max="8" width="7.3984375" customWidth="1"/>
+    <col min="9" max="9" width="6.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="2"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="8"/>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C13" si="0">B4*$H$2</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1080</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E13" si="1">D4*$H$2</f>
-        <v>27.431999999999999</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D13" si="0">C4*$I$2</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1080</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F13" si="1">E4*$I$2</f>
+        <v>-27.431999999999999</v>
+      </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>-575</v>
       </c>
-      <c r="E5" s="7">
+      <c r="F5" s="7">
         <f t="shared" si="1"/>
         <v>-14.604999999999999</v>
       </c>
-      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="H5" s="5"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>360</v>
       </c>
-      <c r="E7" s="7">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>9.1440000000000001</v>
       </c>
-      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>671</v>
       </c>
-      <c r="E8" s="7">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>17.043399999999998</v>
       </c>
-      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>1244</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>31.5976</v>
       </c>
-      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="6" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="2">
         <v>415</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>10.541</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>853</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>21.6662</v>
       </c>
-      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="C11" s="2">
         <v>846</v>
       </c>
-      <c r="C11" s="7">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>21.488399999999999</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>853</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>21.6662</v>
       </c>
-      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="C12" s="2">
         <v>-224</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="7">
         <f t="shared" si="0"/>
         <v>-5.6895999999999995</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>851.5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>21.6281</v>
       </c>
-      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+      <c r="H12" s="5"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="2">
+      <c r="C13" s="2">
         <v>-429</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="7">
         <f t="shared" si="0"/>
         <v>-10.896599999999999</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>1091.5</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>27.7241</v>
       </c>
-      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Distance_info.xlsx
+++ b/Distance_info.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>inch (in)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,6 @@
   </si>
   <si>
     <t>S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,332 +471,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" customWidth="1"/>
-    <col min="7" max="7" width="17.296875" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" customWidth="1"/>
-    <col min="9" max="9" width="6.09765625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3">
+      <c r="H2" s="3">
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" ref="D4:D13" si="0">C4*$I$2</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C13" si="0">B4*$H$2</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>-1080</v>
       </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F13" si="1">E4*$I$2</f>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E13" si="1">D4*$H$2</f>
         <v>-27.431999999999999</v>
       </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>-575</v>
       </c>
-      <c r="F5" s="7">
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
         <v>-14.604999999999999</v>
       </c>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
         <v>360</v>
       </c>
-      <c r="F7" s="7">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>9.1440000000000001</v>
       </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
         <v>671</v>
       </c>
-      <c r="F8" s="7">
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
         <v>17.043399999999998</v>
       </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
         <v>1244</v>
       </c>
-      <c r="F9" s="7">
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
         <v>31.5976</v>
       </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B10" s="2">
         <v>415</v>
       </c>
-      <c r="D10" s="7">
+      <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>10.541</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2">
         <v>853</v>
       </c>
-      <c r="F10" s="7">
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
         <v>21.6662</v>
       </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="6" t="s">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B11" s="2">
         <v>846</v>
       </c>
-      <c r="D11" s="7">
+      <c r="C11" s="7">
         <f t="shared" si="0"/>
         <v>21.488399999999999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D11" s="2">
         <v>853</v>
       </c>
-      <c r="F11" s="7">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>21.6662</v>
       </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="6" t="s">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B12" s="2">
         <v>-224</v>
       </c>
-      <c r="D12" s="7">
+      <c r="C12" s="7">
         <f t="shared" si="0"/>
         <v>-5.6895999999999995</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2">
         <v>851.5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
         <v>21.6281</v>
       </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="6" t="s">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="2">
+      <c r="B13" s="2">
         <v>-429</v>
       </c>
-      <c r="D13" s="7">
+      <c r="C13" s="7">
         <f t="shared" si="0"/>
         <v>-10.896599999999999</v>
       </c>
-      <c r="E13" s="2">
+      <c r="D13" s="2">
         <v>1091.5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
         <v>27.7241</v>
       </c>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
+    </row>
+    <row r="16" spans="1:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="17" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="18" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
